--- a/results/scale/rt_grouped_wide_with_scale.xlsx
+++ b/results/scale/rt_grouped_wide_with_scale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,100 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>subj_idx</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>subj_idx</t>
+          <t>emotion_negative_negative</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_negative</t>
+          <t>emotion_negative_positive</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_positive</t>
+          <t>emotion_positive_negative</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_negative</t>
+          <t>emotion_positive_positive</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_positive</t>
+          <t>shape_negative_negative</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_negative</t>
+          <t>shape_negative_positive</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_positive</t>
+          <t>shape_positive_negative</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_negative</t>
+          <t>shape_positive_positive</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_positive</t>
+          <t>emotion_positivePrimeIndex</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrimeIndex</t>
+          <t>emotion_negativePrimeIndex</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negativePrimeIndex</t>
+          <t>shape_positivePrimeIndex</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrimeIndex</t>
+          <t>shape_negativePrimeIndex</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>shape_negativePrimeIndex</t>
+          <t>shape_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrime-negativePrime</t>
+          <t>emotion_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrime-negativePrime</t>
+          <t>test</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>name</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HAMD</t>
         </is>
@@ -543,3544 +538,3294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>56189087</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>758.047619047619</v>
+      </c>
       <c r="C2" t="n">
-        <v>758.047619047619</v>
+        <v>474.037037037037</v>
       </c>
       <c r="D2" t="n">
-        <v>474.037037037037</v>
+        <v>788.925925925926</v>
       </c>
       <c r="E2" t="n">
-        <v>788.925925925926</v>
+        <v>556.0952380952381</v>
       </c>
       <c r="F2" t="n">
-        <v>556.0952380952381</v>
+        <v>663.9583333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>663.9583333333334</v>
+        <v>656.375</v>
       </c>
       <c r="H2" t="n">
-        <v>656.375</v>
+        <v>734.5416666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>734.5416666666666</v>
+        <v>448.3333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>448.3333333333333</v>
+        <v>30.87830687830694</v>
       </c>
       <c r="K2" t="n">
-        <v>232.8306878306879</v>
+        <v>-82.05820105820106</v>
       </c>
       <c r="L2" t="n">
-        <v>284.010582010582</v>
+        <v>70.58333333333326</v>
       </c>
       <c r="M2" t="n">
-        <v>286.2083333333333</v>
+        <v>208.0416666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>7.583333333333371</v>
+        <v>-137.4583333333335</v>
       </c>
       <c r="O2" t="n">
-        <v>-137.4583333333335</v>
+        <v>112.9365079365082</v>
       </c>
       <c r="P2" t="n">
-        <v>112.9365079365082</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>227.4451058201058</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>-24.52182539682542</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>钟文霞</t>
         </is>
       </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>56277415</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>906.5714285714286</v>
+      </c>
       <c r="C3" t="n">
-        <v>906.5714285714286</v>
+        <v>805.6538461538462</v>
       </c>
       <c r="D3" t="n">
-        <v>805.6538461538462</v>
+        <v>643.72</v>
       </c>
       <c r="E3" t="n">
-        <v>643.72</v>
+        <v>774.7619047619048</v>
       </c>
       <c r="F3" t="n">
-        <v>774.7619047619048</v>
+        <v>801.695652173913</v>
       </c>
       <c r="G3" t="n">
-        <v>801.695652173913</v>
+        <v>899.8</v>
       </c>
       <c r="H3" t="n">
-        <v>899.8</v>
+        <v>874.12</v>
       </c>
       <c r="I3" t="n">
-        <v>874.12</v>
+        <v>896.6363636363636</v>
       </c>
       <c r="J3" t="n">
-        <v>896.6363636363636</v>
+        <v>-262.8514285714285</v>
       </c>
       <c r="K3" t="n">
-        <v>-131.0419047619048</v>
+        <v>30.89194139194137</v>
       </c>
       <c r="L3" t="n">
-        <v>100.9175824175824</v>
+        <v>72.424347826087</v>
       </c>
       <c r="M3" t="n">
-        <v>-22.51636363636362</v>
+        <v>3.163636363636328</v>
       </c>
       <c r="N3" t="n">
-        <v>-98.10434782608695</v>
+        <v>69.26071146245067</v>
       </c>
       <c r="O3" t="n">
-        <v>69.26071146245067</v>
+        <v>-293.7433699633698</v>
       </c>
       <c r="P3" t="n">
-        <v>-293.7433699633698</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-156.3715029897638</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>-224.4826585009192</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>孔张骋</t>
         </is>
       </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>56279808</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>747</v>
+      </c>
       <c r="C4" t="n">
-        <v>747</v>
+        <v>842.8846153846154</v>
       </c>
       <c r="D4" t="n">
-        <v>842.8846153846154</v>
+        <v>690.5384615384615</v>
       </c>
       <c r="E4" t="n">
-        <v>690.5384615384615</v>
+        <v>625.7727272727273</v>
       </c>
       <c r="F4" t="n">
-        <v>625.7727272727273</v>
+        <v>766.625</v>
       </c>
       <c r="G4" t="n">
-        <v>766.625</v>
+        <v>793.7916666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>793.7916666666666</v>
+        <v>833.9090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>833.9090909090909</v>
+        <v>780</v>
       </c>
       <c r="J4" t="n">
-        <v>780</v>
+        <v>-56.46153846153845</v>
       </c>
       <c r="K4" t="n">
-        <v>64.7657342657343</v>
+        <v>217.1118881118881</v>
       </c>
       <c r="L4" t="n">
-        <v>-95.88461538461536</v>
+        <v>67.28409090909088</v>
       </c>
       <c r="M4" t="n">
-        <v>53.90909090909088</v>
+        <v>13.79166666666663</v>
       </c>
       <c r="N4" t="n">
-        <v>-27.16666666666663</v>
+        <v>53.49242424242448</v>
       </c>
       <c r="O4" t="n">
-        <v>53.49242424242448</v>
+        <v>-273.5734265734263</v>
       </c>
       <c r="P4" t="n">
-        <v>-273.5734265734263</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>241.7261072261072</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>-220.0810023310023</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>戴俞锋</t>
         </is>
+      </c>
+      <c r="R4" t="n">
+        <v>16</v>
       </c>
       <c r="S4" t="n">
         <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>56343776</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>542.3200000000001</v>
+      </c>
       <c r="C5" t="n">
-        <v>542.3200000000001</v>
+        <v>601.3913043478261</v>
       </c>
       <c r="D5" t="n">
-        <v>601.3913043478261</v>
+        <v>621.1304347826087</v>
       </c>
       <c r="E5" t="n">
-        <v>621.1304347826087</v>
+        <v>351.2</v>
       </c>
       <c r="F5" t="n">
-        <v>351.2</v>
+        <v>335.88</v>
       </c>
       <c r="G5" t="n">
-        <v>335.88</v>
+        <v>688.3636363636364</v>
       </c>
       <c r="H5" t="n">
-        <v>688.3636363636364</v>
+        <v>655.2272727272727</v>
       </c>
       <c r="I5" t="n">
-        <v>655.2272727272727</v>
+        <v>497.4230769230769</v>
       </c>
       <c r="J5" t="n">
-        <v>497.4230769230769</v>
+        <v>78.8104347826087</v>
       </c>
       <c r="K5" t="n">
-        <v>269.9304347826088</v>
+        <v>250.1913043478261</v>
       </c>
       <c r="L5" t="n">
-        <v>-59.07130434782607</v>
+        <v>319.3472727272728</v>
       </c>
       <c r="M5" t="n">
-        <v>157.8041958041958</v>
+        <v>190.9405594405595</v>
       </c>
       <c r="N5" t="n">
-        <v>-352.4836363636364</v>
+        <v>128.4067132867133</v>
       </c>
       <c r="O5" t="n">
-        <v>128.4067132867133</v>
+        <v>-171.3808695652174</v>
       </c>
       <c r="P5" t="n">
-        <v>-171.3808695652174</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>839.289571298267</v>
-      </c>
-      <c r="R5" t="inlineStr">
+        <v>-42.97415627850415</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>蒲柳衣</t>
         </is>
       </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>56346638</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>683.76</v>
+      </c>
       <c r="C6" t="n">
-        <v>683.76</v>
+        <v>652.2608695652174</v>
       </c>
       <c r="D6" t="n">
-        <v>652.2608695652174</v>
+        <v>721.0454545454545</v>
       </c>
       <c r="E6" t="n">
-        <v>721.0454545454545</v>
+        <v>626.52</v>
       </c>
       <c r="F6" t="n">
-        <v>626.52</v>
+        <v>787.7037037037037</v>
       </c>
       <c r="G6" t="n">
-        <v>787.7037037037037</v>
+        <v>680.2380952380952</v>
       </c>
       <c r="H6" t="n">
-        <v>680.2380952380952</v>
+        <v>724.6666666666666</v>
       </c>
       <c r="I6" t="n">
-        <v>724.6666666666666</v>
+        <v>719.1851851851852</v>
       </c>
       <c r="J6" t="n">
-        <v>719.1851851851852</v>
+        <v>37.28545454545451</v>
       </c>
       <c r="K6" t="n">
-        <v>94.52545454545452</v>
+        <v>25.74086956521739</v>
       </c>
       <c r="L6" t="n">
-        <v>31.49913043478261</v>
+        <v>-63.03703703703707</v>
       </c>
       <c r="M6" t="n">
-        <v>5.48148148148141</v>
+        <v>-38.94708994709003</v>
       </c>
       <c r="N6" t="n">
-        <v>107.4656084656085</v>
+        <v>-24.08994708994715</v>
       </c>
       <c r="O6" t="n">
-        <v>-24.08994708994715</v>
+        <v>11.54458498023723</v>
       </c>
       <c r="P6" t="n">
-        <v>11.54458498023723</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-38.95780287345519</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>-12.54536210970991</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>许乔峰</t>
         </is>
       </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>56352066</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>792.8181818181819</v>
+      </c>
       <c r="C7" t="n">
-        <v>792.8181818181819</v>
+        <v>801.12</v>
       </c>
       <c r="D7" t="n">
-        <v>801.12</v>
+        <v>730.6923076923077</v>
       </c>
       <c r="E7" t="n">
-        <v>730.6923076923077</v>
+        <v>794.9047619047619</v>
       </c>
       <c r="F7" t="n">
-        <v>794.9047619047619</v>
+        <v>928.3928571428572</v>
       </c>
       <c r="G7" t="n">
-        <v>928.3928571428572</v>
+        <v>863.7</v>
       </c>
       <c r="H7" t="n">
-        <v>863.7</v>
+        <v>858.5</v>
       </c>
       <c r="I7" t="n">
-        <v>858.5</v>
+        <v>703.3571428571429</v>
       </c>
       <c r="J7" t="n">
-        <v>703.3571428571429</v>
+        <v>-62.12587412587413</v>
       </c>
       <c r="K7" t="n">
-        <v>-64.21245421245419</v>
+        <v>6.215238095238078</v>
       </c>
       <c r="L7" t="n">
-        <v>-8.301818181818135</v>
+        <v>-69.89285714285722</v>
       </c>
       <c r="M7" t="n">
-        <v>155.1428571428571</v>
+        <v>160.3428571428572</v>
       </c>
       <c r="N7" t="n">
-        <v>64.69285714285718</v>
+        <v>-230.2357142857143</v>
       </c>
       <c r="O7" t="n">
-        <v>-230.2357142857143</v>
+        <v>-68.34111222111233</v>
       </c>
       <c r="P7" t="n">
-        <v>-68.34111222111233</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>34.53936396936388</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>-298.5768265068266</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>周鼎</t>
         </is>
       </c>
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>56354957</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>736.1904761904761</v>
+      </c>
       <c r="C8" t="n">
-        <v>736.1904761904761</v>
+        <v>923.8076923076924</v>
       </c>
       <c r="D8" t="n">
-        <v>923.8076923076924</v>
+        <v>776.5925925925926</v>
       </c>
       <c r="E8" t="n">
-        <v>776.5925925925926</v>
+        <v>950.809523809524</v>
       </c>
       <c r="F8" t="n">
-        <v>950.809523809524</v>
+        <v>909.8333333333334</v>
       </c>
       <c r="G8" t="n">
-        <v>909.8333333333334</v>
+        <v>749.8695652173913</v>
       </c>
       <c r="H8" t="n">
-        <v>749.8695652173913</v>
+        <v>820.6521739130435</v>
       </c>
       <c r="I8" t="n">
-        <v>820.6521739130435</v>
+        <v>724.08</v>
       </c>
       <c r="J8" t="n">
-        <v>724.08</v>
+        <v>40.40211640211646</v>
       </c>
       <c r="K8" t="n">
-        <v>-174.2169312169314</v>
+        <v>-27.00183150183159</v>
       </c>
       <c r="L8" t="n">
-        <v>-187.6172161172162</v>
+        <v>-89.18115942028987</v>
       </c>
       <c r="M8" t="n">
-        <v>96.57217391304346</v>
+        <v>25.78956521739121</v>
       </c>
       <c r="N8" t="n">
-        <v>159.9637681159421</v>
+        <v>-114.9707246376811</v>
       </c>
       <c r="O8" t="n">
-        <v>-114.9707246376811</v>
+        <v>67.40394790394794</v>
       </c>
       <c r="P8" t="n">
-        <v>67.40394790394794</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-49.99130930261379</v>
-      </c>
-      <c r="R8" t="inlineStr">
+        <v>-47.56677673373304</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>肖方睿</t>
         </is>
       </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U8" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>56358294</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>776.7857142857143</v>
+      </c>
       <c r="C9" t="n">
-        <v>776.7857142857143</v>
+        <v>746.6</v>
       </c>
       <c r="D9" t="n">
-        <v>746.6</v>
+        <v>708.05</v>
       </c>
       <c r="E9" t="n">
-        <v>708.05</v>
+        <v>720.7857142857143</v>
       </c>
       <c r="F9" t="n">
-        <v>720.7857142857143</v>
+        <v>790.9047619047619</v>
       </c>
       <c r="G9" t="n">
-        <v>790.9047619047619</v>
+        <v>618.3461538461538</v>
       </c>
       <c r="H9" t="n">
-        <v>618.3461538461538</v>
+        <v>791.925925925926</v>
       </c>
       <c r="I9" t="n">
-        <v>791.925925925926</v>
+        <v>785.6190476190476</v>
       </c>
       <c r="J9" t="n">
-        <v>785.6190476190476</v>
+        <v>-68.73571428571438</v>
       </c>
       <c r="K9" t="n">
-        <v>-12.73571428571438</v>
+        <v>25.81428571428569</v>
       </c>
       <c r="L9" t="n">
-        <v>30.18571428571431</v>
+        <v>1.021164021164054</v>
       </c>
       <c r="M9" t="n">
-        <v>6.306878306878389</v>
+        <v>-167.2728937728938</v>
       </c>
       <c r="N9" t="n">
-        <v>172.5586080586081</v>
+        <v>168.2940577940578</v>
       </c>
       <c r="O9" t="n">
-        <v>168.2940577940578</v>
+        <v>-94.54999999999995</v>
       </c>
       <c r="P9" t="n">
-        <v>-94.54999999999995</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-209.1731583231584</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>73.74405779405777</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>钟福琳</t>
         </is>
       </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>56362338</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>649.1034482758621</v>
+      </c>
       <c r="C10" t="n">
-        <v>649.1034482758621</v>
+        <v>587.4736842105264</v>
       </c>
       <c r="D10" t="n">
-        <v>587.4736842105264</v>
+        <v>605.8947368421053</v>
       </c>
       <c r="E10" t="n">
-        <v>605.8947368421053</v>
+        <v>622.2857142857143</v>
       </c>
       <c r="F10" t="n">
-        <v>622.2857142857143</v>
+        <v>523.6086956521739</v>
       </c>
       <c r="G10" t="n">
-        <v>523.6086956521739</v>
+        <v>628.36</v>
       </c>
       <c r="H10" t="n">
-        <v>628.36</v>
+        <v>616.8</v>
       </c>
       <c r="I10" t="n">
-        <v>616.8</v>
+        <v>562.304347826087</v>
       </c>
       <c r="J10" t="n">
-        <v>562.304347826087</v>
+        <v>-43.20871143375678</v>
       </c>
       <c r="K10" t="n">
-        <v>-16.39097744360902</v>
+        <v>-34.81203007518798</v>
       </c>
       <c r="L10" t="n">
-        <v>61.62976406533573</v>
+        <v>93.19130434782608</v>
       </c>
       <c r="M10" t="n">
-        <v>54.49565217391296</v>
+        <v>66.05565217391302</v>
       </c>
       <c r="N10" t="n">
-        <v>-104.7513043478261</v>
+        <v>27.13565217391306</v>
       </c>
       <c r="O10" t="n">
-        <v>27.13565217391306</v>
+        <v>-8.396681358568912</v>
       </c>
       <c r="P10" t="n">
-        <v>-8.396681358568912</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>81.22621501279434</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>18.73897081534426</v>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>陆鸿运</t>
         </is>
       </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
       <c r="S10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
-      </c>
-      <c r="U10" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>56365025</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>581.8846153846154</v>
+      </c>
       <c r="C11" t="n">
-        <v>581.8846153846154</v>
+        <v>691.1363636363636</v>
       </c>
       <c r="D11" t="n">
-        <v>691.1363636363636</v>
+        <v>612.9545454545455</v>
       </c>
       <c r="E11" t="n">
-        <v>612.9545454545455</v>
+        <v>628.6923076923077</v>
       </c>
       <c r="F11" t="n">
-        <v>628.6923076923077</v>
+        <v>729.7407407407408</v>
       </c>
       <c r="G11" t="n">
-        <v>729.7407407407408</v>
+        <v>655.05</v>
       </c>
       <c r="H11" t="n">
-        <v>655.05</v>
+        <v>710.1</v>
       </c>
       <c r="I11" t="n">
-        <v>710.1</v>
+        <v>627.4285714285714</v>
       </c>
       <c r="J11" t="n">
-        <v>627.4285714285714</v>
+        <v>31.06993006993014</v>
       </c>
       <c r="K11" t="n">
-        <v>-15.73776223776224</v>
+        <v>62.44405594405589</v>
       </c>
       <c r="L11" t="n">
-        <v>-109.2517482517483</v>
+        <v>-19.64074074074074</v>
       </c>
       <c r="M11" t="n">
-        <v>82.67142857142858</v>
+        <v>27.62142857142851</v>
       </c>
       <c r="N11" t="n">
-        <v>74.69074074074081</v>
+        <v>-47.26216931216914</v>
       </c>
       <c r="O11" t="n">
-        <v>-47.26216931216914</v>
+        <v>-31.37412587412587</v>
       </c>
       <c r="P11" t="n">
-        <v>-31.37412587412587</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>101.4946738446738</v>
-      </c>
-      <c r="R11" t="inlineStr">
+        <v>-78.636295186295</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>季志强</t>
         </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>56367536</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>782.3333333333334</v>
+      </c>
       <c r="C12" t="n">
-        <v>782.3333333333334</v>
+        <v>628.7916666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>628.7916666666666</v>
+        <v>836.25</v>
       </c>
       <c r="E12" t="n">
-        <v>836.25</v>
+        <v>682.7391304347826</v>
       </c>
       <c r="F12" t="n">
-        <v>682.7391304347826</v>
+        <v>791.6190476190476</v>
       </c>
       <c r="G12" t="n">
-        <v>791.6190476190476</v>
+        <v>749.7692307692307</v>
       </c>
       <c r="H12" t="n">
-        <v>749.7692307692307</v>
+        <v>700.5769230769231</v>
       </c>
       <c r="I12" t="n">
-        <v>700.5769230769231</v>
+        <v>629.6363636363636</v>
       </c>
       <c r="J12" t="n">
-        <v>629.6363636363636</v>
+        <v>53.91666666666663</v>
       </c>
       <c r="K12" t="n">
-        <v>153.5108695652174</v>
+        <v>-53.94746376811599</v>
       </c>
       <c r="L12" t="n">
-        <v>153.5416666666667</v>
+        <v>-91.0421245421245</v>
       </c>
       <c r="M12" t="n">
-        <v>70.94055944055947</v>
+        <v>120.1328671328671</v>
       </c>
       <c r="N12" t="n">
-        <v>41.84981684981688</v>
+        <v>-211.1749916749914</v>
       </c>
       <c r="O12" t="n">
-        <v>-211.1749916749914</v>
+        <v>107.8641304347825</v>
       </c>
       <c r="P12" t="n">
-        <v>107.8641304347825</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>29.05994548929323</v>
-      </c>
-      <c r="R12" t="inlineStr">
+        <v>-103.310861240209</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>徐昕睿</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
-      </c>
-      <c r="U12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>56696990</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>681</v>
+      </c>
       <c r="C13" t="n">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D13" t="n">
-        <v>713</v>
+        <v>840.3478260869565</v>
       </c>
       <c r="E13" t="n">
-        <v>840.3478260869565</v>
+        <v>511.6</v>
       </c>
       <c r="F13" t="n">
-        <v>511.6</v>
+        <v>814.9230769230769</v>
       </c>
       <c r="G13" t="n">
-        <v>814.9230769230769</v>
+        <v>772.7142857142857</v>
       </c>
       <c r="H13" t="n">
-        <v>772.7142857142857</v>
+        <v>857.6190476190476</v>
       </c>
       <c r="I13" t="n">
-        <v>857.6190476190476</v>
+        <v>702.5555555555555</v>
       </c>
       <c r="J13" t="n">
-        <v>702.5555555555555</v>
+        <v>159.3478260869565</v>
       </c>
       <c r="K13" t="n">
-        <v>328.7478260869565</v>
+        <v>201.4</v>
       </c>
       <c r="L13" t="n">
-        <v>-32</v>
+        <v>42.69597069597069</v>
       </c>
       <c r="M13" t="n">
-        <v>155.063492063492</v>
+        <v>70.15873015873012</v>
       </c>
       <c r="N13" t="n">
-        <v>42.20879120879124</v>
+        <v>-27.46275946275932</v>
       </c>
       <c r="O13" t="n">
-        <v>-27.46275946275932</v>
+        <v>-42.05217391304359</v>
       </c>
       <c r="P13" t="n">
-        <v>-42.05217391304359</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>473.6025269416573</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>-69.51493337580291</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>张屿嘉</t>
         </is>
       </c>
+      <c r="R13" t="n">
+        <v>20</v>
+      </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
-      </c>
-      <c r="U13" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>56702182</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>567.16</v>
+      </c>
       <c r="C14" t="n">
-        <v>567.16</v>
+        <v>589.0434782608696</v>
       </c>
       <c r="D14" t="n">
-        <v>589.0434782608696</v>
+        <v>520.5652173913044</v>
       </c>
       <c r="E14" t="n">
-        <v>520.5652173913044</v>
+        <v>474.44</v>
       </c>
       <c r="F14" t="n">
-        <v>474.44</v>
+        <v>494.75</v>
       </c>
       <c r="G14" t="n">
-        <v>494.75</v>
+        <v>507.5416666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>507.5416666666667</v>
+        <v>561.9583333333334</v>
       </c>
       <c r="I14" t="n">
-        <v>561.9583333333334</v>
+        <v>515.75</v>
       </c>
       <c r="J14" t="n">
-        <v>515.75</v>
+        <v>-46.5947826086956</v>
       </c>
       <c r="K14" t="n">
-        <v>46.12521739130437</v>
+        <v>114.6034782608696</v>
       </c>
       <c r="L14" t="n">
-        <v>-21.88347826086965</v>
+        <v>67.20833333333337</v>
       </c>
       <c r="M14" t="n">
-        <v>46.20833333333337</v>
+        <v>-8.208333333333314</v>
       </c>
       <c r="N14" t="n">
-        <v>-12.79166666666669</v>
+        <v>75.41666666666674</v>
       </c>
       <c r="O14" t="n">
-        <v>75.41666666666674</v>
+        <v>-161.1982608695653</v>
       </c>
       <c r="P14" t="n">
-        <v>-161.1982608695653</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>127.0086956521741</v>
-      </c>
-      <c r="R14" t="inlineStr">
+        <v>-85.78159420289853</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>于胡倩</t>
         </is>
       </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>56708148</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>1025.304347826087</v>
+      </c>
       <c r="C15" t="n">
-        <v>1025.304347826087</v>
+        <v>851.52</v>
       </c>
       <c r="D15" t="n">
-        <v>851.52</v>
+        <v>775.6666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>775.6666666666666</v>
+        <v>760.2608695652174</v>
       </c>
       <c r="F15" t="n">
-        <v>760.2608695652174</v>
+        <v>776.8181818181819</v>
       </c>
       <c r="G15" t="n">
-        <v>776.8181818181819</v>
+        <v>762.12</v>
       </c>
       <c r="H15" t="n">
-        <v>762.12</v>
+        <v>779.3846153846154</v>
       </c>
       <c r="I15" t="n">
-        <v>779.3846153846154</v>
+        <v>643.5909090909091</v>
       </c>
       <c r="J15" t="n">
-        <v>643.5909090909091</v>
+        <v>-249.6376811594204</v>
       </c>
       <c r="K15" t="n">
-        <v>15.40579710144925</v>
+        <v>91.25913043478261</v>
       </c>
       <c r="L15" t="n">
-        <v>173.784347826087</v>
+        <v>2.566433566433489</v>
       </c>
       <c r="M15" t="n">
-        <v>135.7937062937062</v>
+        <v>118.5290909090909</v>
       </c>
       <c r="N15" t="n">
-        <v>14.69818181818187</v>
+        <v>-115.9626573426574</v>
       </c>
       <c r="O15" t="n">
-        <v>-115.9626573426574</v>
+        <v>-340.896811594203</v>
       </c>
       <c r="P15" t="n">
-        <v>-340.896811594203</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-37.28302624911339</v>
-      </c>
-      <c r="R15" t="inlineStr">
+        <v>-456.8594689368604</v>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>程新宙</t>
         </is>
       </c>
+      <c r="R15" t="n">
+        <v>14</v>
+      </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
-      </c>
-      <c r="U15" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>56710691</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>420.76</v>
+      </c>
       <c r="C16" t="n">
-        <v>420.76</v>
+        <v>462.7391304347826</v>
       </c>
       <c r="D16" t="n">
-        <v>462.7391304347826</v>
+        <v>436.5217391304348</v>
       </c>
       <c r="E16" t="n">
-        <v>436.5217391304348</v>
+        <v>388.2</v>
       </c>
       <c r="F16" t="n">
-        <v>388.2</v>
+        <v>514.6363636363636</v>
       </c>
       <c r="G16" t="n">
-        <v>514.6363636363636</v>
+        <v>438.4615384615385</v>
       </c>
       <c r="H16" t="n">
-        <v>438.4615384615385</v>
+        <v>493.8846153846154</v>
       </c>
       <c r="I16" t="n">
-        <v>493.8846153846154</v>
+        <v>368.3636363636364</v>
       </c>
       <c r="J16" t="n">
-        <v>368.3636363636364</v>
+        <v>15.76173913043482</v>
       </c>
       <c r="K16" t="n">
-        <v>48.32173913043482</v>
+        <v>74.53913043478263</v>
       </c>
       <c r="L16" t="n">
-        <v>-41.97913043478263</v>
+        <v>-20.75174825174827</v>
       </c>
       <c r="M16" t="n">
-        <v>125.520979020979</v>
+        <v>70.09790209790208</v>
       </c>
       <c r="N16" t="n">
-        <v>76.17482517482517</v>
+        <v>-90.84965034965035</v>
       </c>
       <c r="O16" t="n">
-        <v>-90.84965034965035</v>
+        <v>-58.77739130434782</v>
       </c>
       <c r="P16" t="n">
-        <v>-58.77739130434782</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>139.6470234113713</v>
-      </c>
-      <c r="R16" t="inlineStr">
+        <v>-149.6270416539982</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>王晨祎</t>
         </is>
       </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
       <c r="S16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
-      </c>
-      <c r="U16" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>56783666</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>537.8</v>
+      </c>
       <c r="C17" t="n">
-        <v>537.8</v>
+        <v>531.5217391304348</v>
       </c>
       <c r="D17" t="n">
-        <v>531.5217391304348</v>
+        <v>479.2173913043478</v>
       </c>
       <c r="E17" t="n">
-        <v>479.2173913043478</v>
+        <v>494.52</v>
       </c>
       <c r="F17" t="n">
-        <v>494.52</v>
+        <v>592.3333333333334</v>
       </c>
       <c r="G17" t="n">
-        <v>592.3333333333334</v>
+        <v>552.2592592592592</v>
       </c>
       <c r="H17" t="n">
-        <v>552.2592592592592</v>
+        <v>624.9629629629629</v>
       </c>
       <c r="I17" t="n">
-        <v>624.9629629629629</v>
+        <v>516.2380952380952</v>
       </c>
       <c r="J17" t="n">
-        <v>516.2380952380952</v>
+        <v>-58.58260869565214</v>
       </c>
       <c r="K17" t="n">
-        <v>-15.30260869565217</v>
+        <v>37.00173913043477</v>
       </c>
       <c r="L17" t="n">
-        <v>6.278260869565202</v>
+        <v>32.62962962962956</v>
       </c>
       <c r="M17" t="n">
-        <v>108.7248677248677</v>
+        <v>36.02116402116405</v>
       </c>
       <c r="N17" t="n">
-        <v>40.07407407407413</v>
+        <v>-3.391534391534606</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.391534391534606</v>
+        <v>-95.58434782608697</v>
       </c>
       <c r="P17" t="n">
-        <v>-95.58434782608697</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>47.06992408557625</v>
-      </c>
-      <c r="R17" t="inlineStr">
+        <v>-98.9758822176214</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>于金龙</t>
         </is>
       </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
-      </c>
-      <c r="U17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>56787409</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>782.1818181818181</v>
+      </c>
       <c r="C18" t="n">
-        <v>782.1818181818181</v>
+        <v>630.5</v>
       </c>
       <c r="D18" t="n">
-        <v>630.5</v>
+        <v>670.4400000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>670.4400000000001</v>
+        <v>680.7272727272727</v>
       </c>
       <c r="F18" t="n">
-        <v>680.7272727272727</v>
+        <v>701.84</v>
       </c>
       <c r="G18" t="n">
-        <v>701.84</v>
+        <v>841.8695652173913</v>
       </c>
       <c r="H18" t="n">
-        <v>841.8695652173913</v>
+        <v>938.5652173913044</v>
       </c>
       <c r="I18" t="n">
-        <v>938.5652173913044</v>
+        <v>649.12</v>
       </c>
       <c r="J18" t="n">
-        <v>649.12</v>
+        <v>-111.7418181818181</v>
       </c>
       <c r="K18" t="n">
-        <v>-10.28727272727269</v>
+        <v>-50.22727272727275</v>
       </c>
       <c r="L18" t="n">
-        <v>151.6818181818181</v>
+        <v>236.7252173913043</v>
       </c>
       <c r="M18" t="n">
-        <v>289.4452173913044</v>
+        <v>192.7495652173913</v>
       </c>
       <c r="N18" t="n">
-        <v>-140.0295652173912</v>
+        <v>43.9756521739132</v>
       </c>
       <c r="O18" t="n">
-        <v>43.9756521739132</v>
+        <v>-61.51454545454521</v>
       </c>
       <c r="P18" t="n">
-        <v>-61.51454545454521</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>267.5056916996048</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>-17.53889328063224</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>左家伟</t>
         </is>
       </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
-      </c>
-      <c r="U18" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>56789859</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>668.8076923076923</v>
+      </c>
       <c r="C19" t="n">
-        <v>668.8076923076923</v>
+        <v>562.6363636363636</v>
       </c>
       <c r="D19" t="n">
-        <v>562.6363636363636</v>
+        <v>684.5454545454545</v>
       </c>
       <c r="E19" t="n">
-        <v>684.5454545454545</v>
+        <v>537.4615384615385</v>
       </c>
       <c r="F19" t="n">
-        <v>537.4615384615385</v>
+        <v>687.6799999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>687.6799999999999</v>
+        <v>545.8260869565217</v>
       </c>
       <c r="H19" t="n">
-        <v>545.8260869565217</v>
+        <v>704.0869565217391</v>
       </c>
       <c r="I19" t="n">
-        <v>704.0869565217391</v>
+        <v>512.2</v>
       </c>
       <c r="J19" t="n">
-        <v>512.2</v>
+        <v>15.73776223776224</v>
       </c>
       <c r="K19" t="n">
-        <v>147.0839160839161</v>
+        <v>25.17482517482517</v>
       </c>
       <c r="L19" t="n">
-        <v>106.1713286713286</v>
+        <v>16.40695652173918</v>
       </c>
       <c r="M19" t="n">
-        <v>191.8869565217391</v>
+        <v>33.6260869565217</v>
       </c>
       <c r="N19" t="n">
-        <v>141.8539130434782</v>
+        <v>-17.21913043478253</v>
       </c>
       <c r="O19" t="n">
-        <v>-17.21913043478253</v>
+        <v>-9.437062937062819</v>
       </c>
       <c r="P19" t="n">
-        <v>-9.437062937062819</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>90.94563089084829</v>
-      </c>
-      <c r="R19" t="inlineStr">
+        <v>-26.65619337184546</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>王皓璋</t>
         </is>
       </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>55758322</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>600.48</v>
+      </c>
       <c r="C20" t="n">
-        <v>600.48</v>
+        <v>711.9565217391304</v>
       </c>
       <c r="D20" t="n">
-        <v>711.9565217391304</v>
+        <v>620.7391304347826</v>
       </c>
       <c r="E20" t="n">
-        <v>620.7391304347826</v>
+        <v>487.48</v>
       </c>
       <c r="F20" t="n">
-        <v>487.48</v>
+        <v>575</v>
       </c>
       <c r="G20" t="n">
-        <v>575</v>
+        <v>643.304347826087</v>
       </c>
       <c r="H20" t="n">
-        <v>643.304347826087</v>
+        <v>749.75</v>
       </c>
       <c r="I20" t="n">
-        <v>749.75</v>
+        <v>560.1739130434783</v>
       </c>
       <c r="J20" t="n">
-        <v>560.1739130434783</v>
+        <v>20.25913043478261</v>
       </c>
       <c r="K20" t="n">
-        <v>133.2591304347826</v>
+        <v>224.4765217391304</v>
       </c>
       <c r="L20" t="n">
-        <v>-111.4765217391304</v>
+        <v>174.75</v>
       </c>
       <c r="M20" t="n">
-        <v>189.5760869565217</v>
+        <v>83.13043478260875</v>
       </c>
       <c r="N20" t="n">
-        <v>-68.304347826087</v>
+        <v>91.61956521739125</v>
       </c>
       <c r="O20" t="n">
-        <v>91.61956521739125</v>
+        <v>-204.217391304348</v>
       </c>
       <c r="P20" t="n">
-        <v>-204.217391304348</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>502.6160869565217</v>
-      </c>
-      <c r="R20" t="inlineStr">
+        <v>-112.5978260869565</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>刘昊殷</t>
         </is>
       </c>
+      <c r="R20" t="n">
+        <v>9</v>
+      </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>55760307</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>809.7826086956521</v>
+      </c>
       <c r="C21" t="n">
-        <v>809.7826086956521</v>
+        <v>636.28</v>
       </c>
       <c r="D21" t="n">
-        <v>636.28</v>
+        <v>734.92</v>
       </c>
       <c r="E21" t="n">
-        <v>734.92</v>
+        <v>696.0869565217391</v>
       </c>
       <c r="F21" t="n">
-        <v>696.0869565217391</v>
+        <v>785.04</v>
       </c>
       <c r="G21" t="n">
-        <v>785.04</v>
+        <v>758.5454545454545</v>
       </c>
       <c r="H21" t="n">
-        <v>758.5454545454545</v>
+        <v>886.9130434782609</v>
       </c>
       <c r="I21" t="n">
-        <v>886.9130434782609</v>
+        <v>763.2</v>
       </c>
       <c r="J21" t="n">
-        <v>763.2</v>
+        <v>-74.86260869565217</v>
       </c>
       <c r="K21" t="n">
-        <v>38.83304347826083</v>
+        <v>-59.80695652173915</v>
       </c>
       <c r="L21" t="n">
-        <v>173.5026086956522</v>
+        <v>101.8730434782609</v>
       </c>
       <c r="M21" t="n">
-        <v>123.7130434782608</v>
+        <v>-4.654545454545541</v>
       </c>
       <c r="N21" t="n">
-        <v>26.49454545454546</v>
+        <v>106.5275889328063</v>
       </c>
       <c r="O21" t="n">
-        <v>106.5275889328063</v>
+        <v>-15.05565217391313</v>
       </c>
       <c r="P21" t="n">
-        <v>-15.05565217391313</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-37.45106719367595</v>
-      </c>
-      <c r="R21" t="inlineStr">
+        <v>91.47193675889343</v>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>舒琪</t>
         </is>
       </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>55763117</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>787.4074074074074</v>
+      </c>
       <c r="C22" t="n">
-        <v>787.4074074074074</v>
+        <v>497.8</v>
       </c>
       <c r="D22" t="n">
-        <v>497.8</v>
+        <v>713.75</v>
       </c>
       <c r="E22" t="n">
-        <v>713.75</v>
+        <v>441.3928571428572</v>
       </c>
       <c r="F22" t="n">
-        <v>441.3928571428572</v>
+        <v>865.375</v>
       </c>
       <c r="G22" t="n">
-        <v>865.375</v>
+        <v>562.2083333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>562.2083333333334</v>
+        <v>765.2083333333334</v>
       </c>
       <c r="I22" t="n">
-        <v>765.2083333333334</v>
+        <v>537.6666666666666</v>
       </c>
       <c r="J22" t="n">
-        <v>537.6666666666666</v>
+        <v>-73.65740740740739</v>
       </c>
       <c r="K22" t="n">
-        <v>272.3571428571428</v>
+        <v>56.40714285714279</v>
       </c>
       <c r="L22" t="n">
-        <v>289.6074074074074</v>
+        <v>-100.1666666666666</v>
       </c>
       <c r="M22" t="n">
-        <v>227.5416666666667</v>
+        <v>24.54166666666674</v>
       </c>
       <c r="N22" t="n">
-        <v>303.1666666666666</v>
+        <v>-124.7083333333335</v>
       </c>
       <c r="O22" t="n">
-        <v>-124.7083333333335</v>
+        <v>-130.06455026455</v>
       </c>
       <c r="P22" t="n">
-        <v>-130.06455026455</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-92.87526455026449</v>
-      </c>
-      <c r="R22" t="inlineStr">
+        <v>-254.7728835978835</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>蔡安新</t>
         </is>
       </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>55766121</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>1140.071428571429</v>
+      </c>
       <c r="C23" t="n">
-        <v>1140.071428571429</v>
+        <v>900.6</v>
       </c>
       <c r="D23" t="n">
-        <v>900.6</v>
+        <v>1030.368421052632</v>
       </c>
       <c r="E23" t="n">
-        <v>1030.368421052632</v>
+        <v>1143.518518518518</v>
       </c>
       <c r="F23" t="n">
-        <v>1143.518518518518</v>
+        <v>957.24</v>
       </c>
       <c r="G23" t="n">
-        <v>957.24</v>
+        <v>1335.631578947368</v>
       </c>
       <c r="H23" t="n">
-        <v>1335.631578947368</v>
+        <v>1199.652173913043</v>
       </c>
       <c r="I23" t="n">
-        <v>1199.652173913043</v>
+        <v>1062.818181818182</v>
       </c>
       <c r="J23" t="n">
-        <v>1062.818181818182</v>
+        <v>-109.7030075187972</v>
       </c>
       <c r="K23" t="n">
-        <v>-113.1500974658868</v>
+        <v>-242.9185185185185</v>
       </c>
       <c r="L23" t="n">
-        <v>239.4714285714289</v>
+        <v>242.4121739130435</v>
       </c>
       <c r="M23" t="n">
-        <v>136.8339920948617</v>
+        <v>272.8133971291866</v>
       </c>
       <c r="N23" t="n">
-        <v>-378.3915789473683</v>
+        <v>-30.40122321614308</v>
       </c>
       <c r="O23" t="n">
-        <v>-30.40122321614308</v>
+        <v>133.2155109997211</v>
       </c>
       <c r="P23" t="n">
-        <v>133.2155109997211</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>162.6040450049144</v>
-      </c>
-      <c r="R23" t="inlineStr">
+        <v>102.8142877835782</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>王子菲</t>
         </is>
       </c>
+      <c r="R23" t="n">
+        <v>10</v>
+      </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
-      </c>
-      <c r="U23" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>55768880</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>685.9</v>
+      </c>
       <c r="C24" t="n">
-        <v>685.9</v>
+        <v>640.8518518518518</v>
       </c>
       <c r="D24" t="n">
-        <v>640.8518518518518</v>
+        <v>719.6666666666666</v>
       </c>
       <c r="E24" t="n">
-        <v>719.6666666666666</v>
+        <v>685.0952380952381</v>
       </c>
       <c r="F24" t="n">
-        <v>685.0952380952381</v>
+        <v>773.25</v>
       </c>
       <c r="G24" t="n">
-        <v>773.25</v>
+        <v>738.9473684210526</v>
       </c>
       <c r="H24" t="n">
-        <v>738.9473684210526</v>
+        <v>966.529411764706</v>
       </c>
       <c r="I24" t="n">
-        <v>966.529411764706</v>
+        <v>867.7586206896551</v>
       </c>
       <c r="J24" t="n">
-        <v>867.7586206896551</v>
+        <v>33.76666666666665</v>
       </c>
       <c r="K24" t="n">
-        <v>34.57142857142856</v>
+        <v>-44.24338624338623</v>
       </c>
       <c r="L24" t="n">
-        <v>45.04814814814813</v>
+        <v>193.279411764706</v>
       </c>
       <c r="M24" t="n">
-        <v>98.77079107505085</v>
+        <v>-128.8112522686025</v>
       </c>
       <c r="N24" t="n">
-        <v>34.3026315789474</v>
+        <v>322.0906640333087</v>
       </c>
       <c r="O24" t="n">
-        <v>322.0906640333087</v>
+        <v>78.01005291005276</v>
       </c>
       <c r="P24" t="n">
-        <v>78.01005291005276</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>53.99143991938388</v>
-      </c>
-      <c r="R24" t="inlineStr">
+        <v>400.1007169433614</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>刘洋</t>
         </is>
       </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>55774247</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>496.4166666666667</v>
+      </c>
       <c r="C25" t="n">
-        <v>496.4166666666667</v>
+        <v>621.4166666666666</v>
       </c>
       <c r="D25" t="n">
-        <v>621.4166666666666</v>
+        <v>569.6666666666666</v>
       </c>
       <c r="E25" t="n">
-        <v>569.6666666666666</v>
+        <v>546.375</v>
       </c>
       <c r="F25" t="n">
-        <v>546.375</v>
+        <v>557.125</v>
       </c>
       <c r="G25" t="n">
-        <v>557.125</v>
+        <v>573.875</v>
       </c>
       <c r="H25" t="n">
-        <v>573.875</v>
+        <v>649.7916666666666</v>
       </c>
       <c r="I25" t="n">
-        <v>649.7916666666666</v>
+        <v>597.5</v>
       </c>
       <c r="J25" t="n">
-        <v>597.5</v>
+        <v>73.24999999999994</v>
       </c>
       <c r="K25" t="n">
-        <v>23.29166666666663</v>
+        <v>75.04166666666663</v>
       </c>
       <c r="L25" t="n">
-        <v>-124.9999999999999</v>
+        <v>92.66666666666663</v>
       </c>
       <c r="M25" t="n">
-        <v>52.29166666666663</v>
+        <v>-23.625</v>
       </c>
       <c r="N25" t="n">
-        <v>-16.75</v>
+        <v>116.2916666666665</v>
       </c>
       <c r="O25" t="n">
-        <v>116.2916666666665</v>
+        <v>-1.791666666666742</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.791666666666742</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>217.3333333333332</v>
-      </c>
-      <c r="R25" t="inlineStr">
+        <v>114.4999999999999</v>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>管笑啸</t>
         </is>
       </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
-      </c>
-      <c r="U25" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>55776021</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>668.0357142857143</v>
+      </c>
       <c r="C26" t="n">
-        <v>668.0357142857143</v>
+        <v>636</v>
       </c>
       <c r="D26" t="n">
-        <v>636</v>
+        <v>579.15</v>
       </c>
       <c r="E26" t="n">
-        <v>579.15</v>
+        <v>640.25</v>
       </c>
       <c r="F26" t="n">
-        <v>640.25</v>
+        <v>710.9565217391304</v>
       </c>
       <c r="G26" t="n">
-        <v>710.9565217391304</v>
+        <v>641.4</v>
       </c>
       <c r="H26" t="n">
-        <v>641.4</v>
+        <v>618.4400000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>618.4400000000001</v>
+        <v>551.8260869565217</v>
       </c>
       <c r="J26" t="n">
-        <v>551.8260869565217</v>
+        <v>-88.88571428571436</v>
       </c>
       <c r="K26" t="n">
-        <v>-61.10000000000002</v>
+        <v>-4.25</v>
       </c>
       <c r="L26" t="n">
-        <v>32.03571428571433</v>
+        <v>-92.51652173913033</v>
       </c>
       <c r="M26" t="n">
-        <v>66.61391304347831</v>
+        <v>89.57391304347823</v>
       </c>
       <c r="N26" t="n">
-        <v>69.5565217391304</v>
+        <v>-182.0904347826086</v>
       </c>
       <c r="O26" t="n">
-        <v>-182.0904347826086</v>
+        <v>-84.63571428571413</v>
       </c>
       <c r="P26" t="n">
-        <v>-84.63571428571413</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-96.07832298136645</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>-266.7261490683229</v>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>贾凡</t>
         </is>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
       </c>
       <c r="S26" t="n">
         <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
-      </c>
-      <c r="U26" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>55777851</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>548.5599999999999</v>
+      </c>
       <c r="C27" t="n">
-        <v>548.5599999999999</v>
+        <v>453.5652173913044</v>
       </c>
       <c r="D27" t="n">
-        <v>453.5652173913044</v>
+        <v>537.8260869565217</v>
       </c>
       <c r="E27" t="n">
-        <v>537.8260869565217</v>
+        <v>487.72</v>
       </c>
       <c r="F27" t="n">
-        <v>487.72</v>
+        <v>525.7692307692307</v>
       </c>
       <c r="G27" t="n">
-        <v>525.7692307692307</v>
+        <v>466.8181818181818</v>
       </c>
       <c r="H27" t="n">
-        <v>466.8181818181818</v>
+        <v>604.4090909090909</v>
       </c>
       <c r="I27" t="n">
-        <v>604.4090909090909</v>
+        <v>514.2307692307693</v>
       </c>
       <c r="J27" t="n">
-        <v>514.2307692307693</v>
+        <v>-10.7339130434782</v>
       </c>
       <c r="K27" t="n">
-        <v>50.10608695652172</v>
+        <v>-34.15478260869565</v>
       </c>
       <c r="L27" t="n">
-        <v>94.99478260869557</v>
+        <v>78.63986013986016</v>
       </c>
       <c r="M27" t="n">
-        <v>90.17832167832159</v>
+        <v>-47.41258741258747</v>
       </c>
       <c r="N27" t="n">
-        <v>58.9510489510489</v>
+        <v>126.0524475524476</v>
       </c>
       <c r="O27" t="n">
-        <v>126.0524475524476</v>
+        <v>23.42086956521746</v>
       </c>
       <c r="P27" t="n">
-        <v>23.42086956521746</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-13.66142292490116</v>
-      </c>
-      <c r="R27" t="inlineStr">
+        <v>149.4733171176651</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>肖舜睿</t>
         </is>
       </c>
+      <c r="R27" t="n">
+        <v>7</v>
+      </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>55779767</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>661.7142857142857</v>
+      </c>
       <c r="C28" t="n">
-        <v>661.7142857142857</v>
+        <v>575.45</v>
       </c>
       <c r="D28" t="n">
-        <v>575.45</v>
+        <v>707.05</v>
       </c>
       <c r="E28" t="n">
-        <v>707.05</v>
+        <v>579.6071428571429</v>
       </c>
       <c r="F28" t="n">
-        <v>579.6071428571429</v>
+        <v>632.8275862068965</v>
       </c>
       <c r="G28" t="n">
-        <v>632.8275862068965</v>
+        <v>749.5263157894736</v>
       </c>
       <c r="H28" t="n">
-        <v>749.5263157894736</v>
+        <v>688.8947368421053</v>
       </c>
       <c r="I28" t="n">
-        <v>688.8947368421053</v>
+        <v>595.3793103448276</v>
       </c>
       <c r="J28" t="n">
-        <v>595.3793103448276</v>
+        <v>45.33571428571429</v>
       </c>
       <c r="K28" t="n">
-        <v>127.4428571428571</v>
+        <v>-4.157142857142844</v>
       </c>
       <c r="L28" t="n">
-        <v>86.26428571428562</v>
+        <v>56.0671506352088</v>
       </c>
       <c r="M28" t="n">
-        <v>93.51542649727776</v>
+        <v>154.1470054446461</v>
       </c>
       <c r="N28" t="n">
-        <v>-116.6987295825771</v>
+        <v>-98.07985480943717</v>
       </c>
       <c r="O28" t="n">
-        <v>-98.07985480943717</v>
+        <v>49.49285714285725</v>
       </c>
       <c r="P28" t="n">
-        <v>49.49285714285725</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>251.3927275084263</v>
-      </c>
-      <c r="R28" t="inlineStr">
+        <v>-48.58699766658015</v>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>林雨仙</t>
         </is>
       </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>55781652</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>592.5833333333334</v>
+      </c>
       <c r="C29" t="n">
-        <v>592.5833333333334</v>
+        <v>683.2083333333334</v>
       </c>
       <c r="D29" t="n">
-        <v>683.2083333333334</v>
+        <v>675.9166666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>675.9166666666666</v>
+        <v>550.5</v>
       </c>
       <c r="F29" t="n">
-        <v>550.5</v>
+        <v>692.2727272727273</v>
       </c>
       <c r="G29" t="n">
-        <v>692.2727272727273</v>
+        <v>707.7307692307693</v>
       </c>
       <c r="H29" t="n">
-        <v>707.7307692307693</v>
+        <v>677.0384615384615</v>
       </c>
       <c r="I29" t="n">
-        <v>677.0384615384615</v>
+        <v>563.5454545454545</v>
       </c>
       <c r="J29" t="n">
-        <v>563.5454545454545</v>
+        <v>83.33333333333326</v>
       </c>
       <c r="K29" t="n">
-        <v>125.4166666666666</v>
+        <v>132.7083333333334</v>
       </c>
       <c r="L29" t="n">
-        <v>-90.625</v>
+        <v>-15.2342657342657</v>
       </c>
       <c r="M29" t="n">
-        <v>113.493006993007</v>
+        <v>144.1853146853148</v>
       </c>
       <c r="N29" t="n">
-        <v>-15.45804195804203</v>
+        <v>-159.4195804195806</v>
       </c>
       <c r="O29" t="n">
-        <v>-159.4195804195806</v>
+        <v>-49.37500000000023</v>
       </c>
       <c r="P29" t="n">
-        <v>-49.37500000000023</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>344.9927156177157</v>
-      </c>
-      <c r="R29" t="inlineStr">
+        <v>-208.7945804195806</v>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>符慧跃</t>
         </is>
       </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T29" t="n">
-        <v>12</v>
-      </c>
-      <c r="U29" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>55850187</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>542.0344827586207</v>
+      </c>
       <c r="C30" t="n">
-        <v>542.0344827586207</v>
+        <v>477.9473684210527</v>
       </c>
       <c r="D30" t="n">
-        <v>477.9473684210527</v>
+        <v>578.421052631579</v>
       </c>
       <c r="E30" t="n">
-        <v>578.421052631579</v>
+        <v>429.3103448275862</v>
       </c>
       <c r="F30" t="n">
-        <v>429.3103448275862</v>
+        <v>553.5599999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>553.5599999999999</v>
+        <v>552.7826086956521</v>
       </c>
       <c r="H30" t="n">
-        <v>552.7826086956521</v>
+        <v>580.9130434782609</v>
       </c>
       <c r="I30" t="n">
-        <v>580.9130434782609</v>
+        <v>495.04</v>
       </c>
       <c r="J30" t="n">
-        <v>495.04</v>
+        <v>36.38656987295826</v>
       </c>
       <c r="K30" t="n">
-        <v>149.1107078039927</v>
+        <v>48.63702359346649</v>
       </c>
       <c r="L30" t="n">
-        <v>64.08711433756798</v>
+        <v>27.35304347826093</v>
       </c>
       <c r="M30" t="n">
-        <v>85.87304347826085</v>
+        <v>57.74260869565211</v>
       </c>
       <c r="N30" t="n">
-        <v>0.777391304347816</v>
+        <v>-30.38956521739101</v>
       </c>
       <c r="O30" t="n">
-        <v>-30.38956521739101</v>
+        <v>-12.25045372050818</v>
       </c>
       <c r="P30" t="n">
-        <v>-12.25045372050818</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>170.1192456403378</v>
-      </c>
-      <c r="R30" t="inlineStr">
+        <v>-42.64001893789941</v>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>徐正圆</t>
         </is>
       </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>55852656</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>493.2173913043478</v>
+      </c>
       <c r="C31" t="n">
-        <v>493.2173913043478</v>
+        <v>425.28</v>
       </c>
       <c r="D31" t="n">
-        <v>425.28</v>
+        <v>428.64</v>
       </c>
       <c r="E31" t="n">
-        <v>428.64</v>
+        <v>491.5652173913044</v>
       </c>
       <c r="F31" t="n">
-        <v>491.5652173913044</v>
+        <v>529.304347826087</v>
       </c>
       <c r="G31" t="n">
-        <v>529.304347826087</v>
+        <v>484.04</v>
       </c>
       <c r="H31" t="n">
-        <v>484.04</v>
+        <v>451.76</v>
       </c>
       <c r="I31" t="n">
-        <v>451.76</v>
+        <v>538.0434782608696</v>
       </c>
       <c r="J31" t="n">
-        <v>538.0434782608696</v>
+        <v>-64.57739130434783</v>
       </c>
       <c r="K31" t="n">
-        <v>-62.92521739130439</v>
+        <v>-66.2852173913044</v>
       </c>
       <c r="L31" t="n">
-        <v>67.93739130434784</v>
+        <v>-77.54434782608701</v>
       </c>
       <c r="M31" t="n">
-        <v>-86.28347826086963</v>
+        <v>-54.0034782608696</v>
       </c>
       <c r="N31" t="n">
-        <v>45.26434782608698</v>
+        <v>-23.54086956521735</v>
       </c>
       <c r="O31" t="n">
-        <v>-23.54086956521735</v>
+        <v>1.707826086956629</v>
       </c>
       <c r="P31" t="n">
-        <v>1.707826086956629</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>-262.4104347826088</v>
-      </c>
-      <c r="R31" t="inlineStr">
+        <v>-21.83304347826083</v>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>陈圣泽</t>
         </is>
       </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
-      </c>
-      <c r="U31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>55854618</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>521.2608695652174</v>
+      </c>
       <c r="C32" t="n">
-        <v>521.2608695652174</v>
+        <v>527.76</v>
       </c>
       <c r="D32" t="n">
-        <v>527.76</v>
+        <v>538.4</v>
       </c>
       <c r="E32" t="n">
-        <v>538.4</v>
+        <v>517</v>
       </c>
       <c r="F32" t="n">
-        <v>517</v>
+        <v>556.3913043478261</v>
       </c>
       <c r="G32" t="n">
-        <v>556.3913043478261</v>
+        <v>493.8</v>
       </c>
       <c r="H32" t="n">
-        <v>493.8</v>
+        <v>536.88</v>
       </c>
       <c r="I32" t="n">
-        <v>536.88</v>
+        <v>510.8260869565217</v>
       </c>
       <c r="J32" t="n">
-        <v>510.8260869565217</v>
+        <v>17.1391304347826</v>
       </c>
       <c r="K32" t="n">
-        <v>21.39999999999998</v>
+        <v>10.75999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>-6.499130434782614</v>
+        <v>-19.51130434782613</v>
       </c>
       <c r="M32" t="n">
-        <v>26.05391304347825</v>
+        <v>-17.02608695652174</v>
       </c>
       <c r="N32" t="n">
-        <v>62.59130434782611</v>
+        <v>-2.485217391304559</v>
       </c>
       <c r="O32" t="n">
-        <v>-2.485217391304559</v>
+        <v>6.379130434782837</v>
       </c>
       <c r="P32" t="n">
-        <v>6.379130434782837</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-8.638260869565272</v>
-      </c>
-      <c r="R32" t="inlineStr">
+        <v>3.893913043478221</v>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>黄泽铭</t>
         </is>
       </c>
+      <c r="R32" t="n">
+        <v>12</v>
+      </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
-      </c>
-      <c r="U32" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>55860282</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>554.9583333333334</v>
+      </c>
       <c r="C33" t="n">
-        <v>554.9583333333334</v>
+        <v>711.1666666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>711.1666666666666</v>
+        <v>534.5</v>
       </c>
       <c r="E33" t="n">
-        <v>534.5</v>
+        <v>552.2916666666666</v>
       </c>
       <c r="F33" t="n">
-        <v>552.2916666666666</v>
+        <v>542.6521739130435</v>
       </c>
       <c r="G33" t="n">
-        <v>542.6521739130435</v>
+        <v>603.5</v>
       </c>
       <c r="H33" t="n">
-        <v>603.5</v>
+        <v>561.2</v>
       </c>
       <c r="I33" t="n">
-        <v>561.2</v>
+        <v>519.7391304347826</v>
       </c>
       <c r="J33" t="n">
-        <v>519.7391304347826</v>
+        <v>-20.45833333333337</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.79166666666663</v>
+        <v>158.875</v>
       </c>
       <c r="L33" t="n">
-        <v>-156.2083333333333</v>
+        <v>18.54782608695655</v>
       </c>
       <c r="M33" t="n">
-        <v>41.46086956521742</v>
+        <v>83.76086956521738</v>
       </c>
       <c r="N33" t="n">
-        <v>-60.8478260869565</v>
+        <v>-65.21304347826072</v>
       </c>
       <c r="O33" t="n">
-        <v>-65.21304347826072</v>
+        <v>-179.3333333333335</v>
       </c>
       <c r="P33" t="n">
-        <v>-179.3333333333335</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>240.7253623188406</v>
-      </c>
-      <c r="R33" t="inlineStr">
+        <v>-244.5463768115942</v>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>石玥</t>
         </is>
       </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
       <c r="S33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
-      </c>
-      <c r="U33" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>55862633</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>669</v>
+      </c>
       <c r="C34" t="n">
-        <v>669</v>
+        <v>608.75</v>
       </c>
       <c r="D34" t="n">
-        <v>608.75</v>
+        <v>680.6071428571429</v>
       </c>
       <c r="E34" t="n">
-        <v>680.6071428571429</v>
+        <v>766.65</v>
       </c>
       <c r="F34" t="n">
-        <v>766.65</v>
+        <v>566.4347826086956</v>
       </c>
       <c r="G34" t="n">
-        <v>566.4347826086956</v>
+        <v>713.8</v>
       </c>
       <c r="H34" t="n">
-        <v>713.8</v>
+        <v>725.96</v>
       </c>
       <c r="I34" t="n">
-        <v>725.96</v>
+        <v>552.2173913043479</v>
       </c>
       <c r="J34" t="n">
-        <v>552.2173913043479</v>
+        <v>11.60714285714289</v>
       </c>
       <c r="K34" t="n">
-        <v>-86.04285714285709</v>
+        <v>-157.9</v>
       </c>
       <c r="L34" t="n">
-        <v>60.25</v>
+        <v>159.5252173913044</v>
       </c>
       <c r="M34" t="n">
-        <v>173.7426086956522</v>
+        <v>161.5826086956521</v>
       </c>
       <c r="N34" t="n">
-        <v>-147.3652173913043</v>
+        <v>-2.057391304347675</v>
       </c>
       <c r="O34" t="n">
-        <v>-2.057391304347675</v>
+        <v>169.5071428571428</v>
       </c>
       <c r="P34" t="n">
-        <v>169.5071428571428</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>174.8149689440994</v>
-      </c>
-      <c r="R34" t="inlineStr">
+        <v>167.4497515527952</v>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>张楚晨</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>55864604</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>871.5217391304348</v>
+      </c>
       <c r="C35" t="n">
-        <v>871.5217391304348</v>
+        <v>568.6799999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>568.6799999999999</v>
+        <v>748.76</v>
       </c>
       <c r="E35" t="n">
-        <v>748.76</v>
+        <v>581.7826086956521</v>
       </c>
       <c r="F35" t="n">
-        <v>581.7826086956521</v>
+        <v>731.2608695652174</v>
       </c>
       <c r="G35" t="n">
-        <v>731.2608695652174</v>
+        <v>611.52</v>
       </c>
       <c r="H35" t="n">
-        <v>611.52</v>
+        <v>706.6666666666666</v>
       </c>
       <c r="I35" t="n">
-        <v>706.6666666666666</v>
+        <v>457.8260869565217</v>
       </c>
       <c r="J35" t="n">
-        <v>457.8260869565217</v>
+        <v>-122.7617391304348</v>
       </c>
       <c r="K35" t="n">
-        <v>166.9773913043479</v>
+        <v>-13.10260869565218</v>
       </c>
       <c r="L35" t="n">
-        <v>302.8417391304348</v>
+        <v>-24.59420289855075</v>
       </c>
       <c r="M35" t="n">
-        <v>248.8405797101449</v>
+        <v>153.6939130434782</v>
       </c>
       <c r="N35" t="n">
-        <v>119.7408695652174</v>
+        <v>-178.288115942029</v>
       </c>
       <c r="O35" t="n">
-        <v>-178.288115942029</v>
+        <v>-109.6591304347826</v>
       </c>
       <c r="P35" t="n">
-        <v>-109.6591304347826</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>-6.764637681159456</v>
-      </c>
-      <c r="R35" t="inlineStr">
+        <v>-287.9472463768116</v>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>冯雨晨</t>
         </is>
       </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
-      </c>
-      <c r="U35" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>55866572</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>556.5</v>
+      </c>
       <c r="C36" t="n">
-        <v>556.5</v>
+        <v>505.625</v>
       </c>
       <c r="D36" t="n">
-        <v>505.625</v>
+        <v>514.5833333333334</v>
       </c>
       <c r="E36" t="n">
-        <v>514.5833333333334</v>
+        <v>582.875</v>
       </c>
       <c r="F36" t="n">
-        <v>582.875</v>
+        <v>607.5384615384615</v>
       </c>
       <c r="G36" t="n">
-        <v>607.5384615384615</v>
+        <v>604.9090909090909</v>
       </c>
       <c r="H36" t="n">
-        <v>604.9090909090909</v>
+        <v>561.5</v>
       </c>
       <c r="I36" t="n">
-        <v>561.5</v>
+        <v>527.0769230769231</v>
       </c>
       <c r="J36" t="n">
-        <v>527.0769230769231</v>
+        <v>-41.91666666666663</v>
       </c>
       <c r="K36" t="n">
-        <v>-68.29166666666663</v>
+        <v>-77.25</v>
       </c>
       <c r="L36" t="n">
-        <v>50.875</v>
+        <v>-46.03846153846155</v>
       </c>
       <c r="M36" t="n">
-        <v>34.42307692307691</v>
+        <v>77.83216783216778</v>
       </c>
       <c r="N36" t="n">
-        <v>2.629370629370669</v>
+        <v>-123.8706293706293</v>
       </c>
       <c r="O36" t="n">
-        <v>-123.8706293706293</v>
+        <v>35.33333333333348</v>
       </c>
       <c r="P36" t="n">
-        <v>35.33333333333348</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>-87.37296037296039</v>
-      </c>
-      <c r="R36" t="inlineStr">
+        <v>-88.53729603729596</v>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>魏子航</t>
         </is>
       </c>
+      <c r="R36" t="n">
+        <v>8</v>
+      </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
-      </c>
-      <c r="U36" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>55868471</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>384.5909090909091</v>
+      </c>
       <c r="C37" t="n">
-        <v>384.5909090909091</v>
+        <v>424.5</v>
       </c>
       <c r="D37" t="n">
-        <v>424.5</v>
+        <v>391.1538461538461</v>
       </c>
       <c r="E37" t="n">
-        <v>391.1538461538461</v>
+        <v>407.4545454545454</v>
       </c>
       <c r="F37" t="n">
-        <v>407.4545454545454</v>
+        <v>385.125</v>
       </c>
       <c r="G37" t="n">
-        <v>385.125</v>
+        <v>434.4583333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>434.4583333333333</v>
+        <v>422.5</v>
       </c>
       <c r="I37" t="n">
-        <v>422.5</v>
+        <v>373.7916666666667</v>
       </c>
       <c r="J37" t="n">
-        <v>373.7916666666667</v>
+        <v>6.56293706293701</v>
       </c>
       <c r="K37" t="n">
-        <v>-16.30069930069936</v>
+        <v>17.04545454545456</v>
       </c>
       <c r="L37" t="n">
-        <v>-39.90909090909093</v>
+        <v>37.375</v>
       </c>
       <c r="M37" t="n">
-        <v>48.70833333333331</v>
+        <v>60.66666666666663</v>
       </c>
       <c r="N37" t="n">
-        <v>-49.33333333333331</v>
+        <v>-23.29166666666652</v>
       </c>
       <c r="O37" t="n">
-        <v>-23.29166666666652</v>
+        <v>-10.48251748251755</v>
       </c>
       <c r="P37" t="n">
-        <v>-10.48251748251755</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>121.6500582750582</v>
-      </c>
-      <c r="R37" t="inlineStr">
+        <v>-33.77418414918418</v>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>瞿蓉蓉</t>
         </is>
       </c>
+      <c r="R37" t="n">
+        <v>9</v>
+      </c>
       <c r="S37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
-      </c>
-      <c r="U37" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>55916641</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>309.8695652173913</v>
+      </c>
       <c r="C38" t="n">
-        <v>309.8695652173913</v>
+        <v>343.4</v>
       </c>
       <c r="D38" t="n">
-        <v>343.4</v>
+        <v>456.84</v>
       </c>
       <c r="E38" t="n">
-        <v>456.84</v>
+        <v>273.8260869565217</v>
       </c>
       <c r="F38" t="n">
-        <v>273.8260869565217</v>
+        <v>309.5384615384615</v>
       </c>
       <c r="G38" t="n">
-        <v>309.5384615384615</v>
+        <v>415.8636363636364</v>
       </c>
       <c r="H38" t="n">
-        <v>415.8636363636364</v>
+        <v>485.2727272727273</v>
       </c>
       <c r="I38" t="n">
-        <v>485.2727272727273</v>
+        <v>279.2692307692308</v>
       </c>
       <c r="J38" t="n">
-        <v>279.2692307692308</v>
+        <v>146.9704347826087</v>
       </c>
       <c r="K38" t="n">
-        <v>183.0139130434783</v>
+        <v>69.57391304347829</v>
       </c>
       <c r="L38" t="n">
-        <v>-33.53043478260867</v>
+        <v>175.7342657342657</v>
       </c>
       <c r="M38" t="n">
-        <v>206.0034965034965</v>
+        <v>136.5944055944056</v>
       </c>
       <c r="N38" t="n">
-        <v>-106.3251748251748</v>
+        <v>39.13986013986005</v>
       </c>
       <c r="O38" t="n">
-        <v>39.13986013986005</v>
+        <v>77.39652173913032</v>
       </c>
       <c r="P38" t="n">
-        <v>77.39652173913032</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>528.8730191547583</v>
-      </c>
-      <c r="R38" t="inlineStr">
+        <v>116.5363818789905</v>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>伍凯鹏</t>
         </is>
+      </c>
+      <c r="R38" t="n">
+        <v>7</v>
       </c>
       <c r="S38" t="n">
         <v>7</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
-      </c>
-      <c r="U38" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>55918750</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>563.0909090909091</v>
+      </c>
       <c r="C39" t="n">
-        <v>563.0909090909091</v>
+        <v>445.6538461538461</v>
       </c>
       <c r="D39" t="n">
-        <v>445.6538461538461</v>
+        <v>513.1538461538462</v>
       </c>
       <c r="E39" t="n">
-        <v>513.1538461538462</v>
+        <v>439.5909090909091</v>
       </c>
       <c r="F39" t="n">
-        <v>439.5909090909091</v>
+        <v>549.7307692307693</v>
       </c>
       <c r="G39" t="n">
-        <v>549.7307692307693</v>
+        <v>506.2727272727273</v>
       </c>
       <c r="H39" t="n">
-        <v>506.2727272727273</v>
+        <v>516.9545454545455</v>
       </c>
       <c r="I39" t="n">
-        <v>516.9545454545455</v>
+        <v>446.6923076923077</v>
       </c>
       <c r="J39" t="n">
-        <v>446.6923076923077</v>
+        <v>-49.93706293706293</v>
       </c>
       <c r="K39" t="n">
-        <v>73.56293706293712</v>
+        <v>6.06293706293701</v>
       </c>
       <c r="L39" t="n">
-        <v>117.437062937063</v>
+        <v>-32.77622377622379</v>
       </c>
       <c r="M39" t="n">
-        <v>70.26223776223782</v>
+        <v>59.58041958041957</v>
       </c>
       <c r="N39" t="n">
-        <v>43.45804195804203</v>
+        <v>-92.35664335664342</v>
       </c>
       <c r="O39" t="n">
-        <v>-92.35664335664342</v>
+        <v>-56</v>
       </c>
       <c r="P39" t="n">
-        <v>-56</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>-17.06993006993014</v>
-      </c>
-      <c r="R39" t="inlineStr">
+        <v>-148.3566433566433</v>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>邹阳</t>
         </is>
       </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>55928394</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>655.7142857142857</v>
+      </c>
       <c r="C40" t="n">
-        <v>655.7142857142857</v>
+        <v>681.7037037037037</v>
       </c>
       <c r="D40" t="n">
-        <v>681.7037037037037</v>
+        <v>633.8461538461538</v>
       </c>
       <c r="E40" t="n">
-        <v>633.8461538461538</v>
+        <v>689.5238095238095</v>
       </c>
       <c r="F40" t="n">
-        <v>689.5238095238095</v>
+        <v>735.8636363636364</v>
       </c>
       <c r="G40" t="n">
-        <v>735.8636363636364</v>
+        <v>719.0384615384615</v>
       </c>
       <c r="H40" t="n">
-        <v>719.0384615384615</v>
+        <v>712.1153846153846</v>
       </c>
       <c r="I40" t="n">
-        <v>712.1153846153846</v>
+        <v>799.2727272727273</v>
       </c>
       <c r="J40" t="n">
-        <v>799.2727272727273</v>
+        <v>-21.86813186813185</v>
       </c>
       <c r="K40" t="n">
-        <v>-55.67765567765571</v>
+        <v>-7.820105820105823</v>
       </c>
       <c r="L40" t="n">
-        <v>-25.98941798941803</v>
+        <v>-23.74825174825173</v>
       </c>
       <c r="M40" t="n">
-        <v>-87.15734265734261</v>
+        <v>-80.2342657342657</v>
       </c>
       <c r="N40" t="n">
-        <v>16.82517482517483</v>
+        <v>56.48601398601386</v>
       </c>
       <c r="O40" t="n">
-        <v>56.48601398601386</v>
+        <v>-14.0480260480258</v>
       </c>
       <c r="P40" t="n">
-        <v>-14.0480260480258</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-133.6707551707551</v>
-      </c>
-      <c r="R40" t="inlineStr">
+        <v>42.43798793798794</v>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>郑栋栋</t>
         </is>
       </c>
+      <c r="R40" t="n">
+        <v>8</v>
+      </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>55931580</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>739.0833333333334</v>
+      </c>
       <c r="C41" t="n">
-        <v>739.0833333333334</v>
+        <v>644.5833333333334</v>
       </c>
       <c r="D41" t="n">
-        <v>644.5833333333334</v>
+        <v>811.375</v>
       </c>
       <c r="E41" t="n">
-        <v>811.375</v>
+        <v>800.5652173913044</v>
       </c>
       <c r="F41" t="n">
-        <v>800.5652173913044</v>
+        <v>692.4705882352941</v>
       </c>
       <c r="G41" t="n">
-        <v>692.4705882352941</v>
+        <v>758.483870967742</v>
       </c>
       <c r="H41" t="n">
-        <v>758.483870967742</v>
+        <v>863.5806451612904</v>
       </c>
       <c r="I41" t="n">
-        <v>863.5806451612904</v>
+        <v>811.4117647058823</v>
       </c>
       <c r="J41" t="n">
-        <v>811.4117647058823</v>
+        <v>72.29166666666663</v>
       </c>
       <c r="K41" t="n">
-        <v>10.80978260869563</v>
+        <v>-155.981884057971</v>
       </c>
       <c r="L41" t="n">
-        <v>94.5</v>
+        <v>171.1100569259962</v>
       </c>
       <c r="M41" t="n">
-        <v>52.16888045540804</v>
+        <v>-52.92789373814037</v>
       </c>
       <c r="N41" t="n">
-        <v>-66.01328273244781</v>
+        <v>224.0379506641366</v>
       </c>
       <c r="O41" t="n">
-        <v>224.0379506641366</v>
+        <v>228.2735507246377</v>
       </c>
       <c r="P41" t="n">
-        <v>228.2735507246377</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>34.49194579655148</v>
-      </c>
-      <c r="R41" t="inlineStr">
+        <v>452.3115013887742</v>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>高越</t>
         </is>
       </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
-      </c>
-      <c r="U41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>55936390</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>442.36</v>
+      </c>
       <c r="C42" t="n">
-        <v>442.36</v>
+        <v>429.6956521739131</v>
       </c>
       <c r="D42" t="n">
-        <v>429.6956521739131</v>
+        <v>451.8695652173913</v>
       </c>
       <c r="E42" t="n">
-        <v>451.8695652173913</v>
+        <v>374.64</v>
       </c>
       <c r="F42" t="n">
-        <v>374.64</v>
+        <v>412.5925925925926</v>
       </c>
       <c r="G42" t="n">
-        <v>412.5925925925926</v>
+        <v>450.047619047619</v>
       </c>
       <c r="H42" t="n">
-        <v>450.047619047619</v>
+        <v>511.3809523809524</v>
       </c>
       <c r="I42" t="n">
-        <v>511.3809523809524</v>
+        <v>396.2592592592592</v>
       </c>
       <c r="J42" t="n">
-        <v>396.2592592592592</v>
+        <v>9.509565217391298</v>
       </c>
       <c r="K42" t="n">
-        <v>77.22956521739133</v>
+        <v>55.05565217391307</v>
       </c>
       <c r="L42" t="n">
-        <v>12.66434782608695</v>
+        <v>98.7883597883598</v>
       </c>
       <c r="M42" t="n">
-        <v>115.1216931216932</v>
+        <v>53.78835978835986</v>
       </c>
       <c r="N42" t="n">
-        <v>-37.45502645502643</v>
+        <v>45</v>
       </c>
       <c r="O42" t="n">
-        <v>45</v>
+        <v>-45.54608695652178</v>
       </c>
       <c r="P42" t="n">
-        <v>-45.54608695652178</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>217.141936968024</v>
-      </c>
-      <c r="R42" t="inlineStr">
+        <v>-0.5460869565218331</v>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>刘家源</t>
         </is>
       </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
-      </c>
-      <c r="U42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>55938914</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>925.5384615384615</v>
+      </c>
       <c r="C43" t="n">
-        <v>925.5384615384615</v>
+        <v>768.8181818181819</v>
       </c>
       <c r="D43" t="n">
-        <v>768.8181818181819</v>
+        <v>956.2727272727273</v>
       </c>
       <c r="E43" t="n">
-        <v>956.2727272727273</v>
+        <v>805.7692307692307</v>
       </c>
       <c r="F43" t="n">
-        <v>805.7692307692307</v>
+        <v>922.9583333333334</v>
       </c>
       <c r="G43" t="n">
-        <v>922.9583333333334</v>
+        <v>821.7083333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>821.7083333333334</v>
+        <v>856.9583333333334</v>
       </c>
       <c r="I43" t="n">
-        <v>856.9583333333334</v>
+        <v>961.1304347826087</v>
       </c>
       <c r="J43" t="n">
-        <v>961.1304347826087</v>
+        <v>30.7342657342657</v>
       </c>
       <c r="K43" t="n">
-        <v>150.5034965034965</v>
+        <v>-36.95104895104885</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7202797202797</v>
+        <v>-66</v>
       </c>
       <c r="M43" t="n">
-        <v>-104.1721014492754</v>
+        <v>-139.4221014492754</v>
       </c>
       <c r="N43" t="n">
-        <v>101.25</v>
+        <v>73.42210144927526</v>
       </c>
       <c r="O43" t="n">
-        <v>73.42210144927526</v>
+        <v>67.68531468531455</v>
       </c>
       <c r="P43" t="n">
-        <v>67.68531468531455</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-211.6388846660585</v>
-      </c>
-      <c r="R43" t="inlineStr">
+        <v>141.1074161345899</v>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>胡禄美</t>
         </is>
       </c>
+      <c r="R43" t="n">
+        <v>10</v>
+      </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
-      </c>
-      <c r="U43" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>55949248</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>557.0769230769231</v>
+      </c>
       <c r="C44" t="n">
-        <v>557.0769230769231</v>
+        <v>475.4090909090909</v>
       </c>
       <c r="D44" t="n">
-        <v>475.4090909090909</v>
+        <v>545.2272727272727</v>
       </c>
       <c r="E44" t="n">
-        <v>545.2272727272727</v>
+        <v>439.8461538461539</v>
       </c>
       <c r="F44" t="n">
-        <v>439.8461538461539</v>
+        <v>669.695652173913</v>
       </c>
       <c r="G44" t="n">
-        <v>669.695652173913</v>
+        <v>589.48</v>
       </c>
       <c r="H44" t="n">
-        <v>589.48</v>
+        <v>601.72</v>
       </c>
       <c r="I44" t="n">
-        <v>601.72</v>
+        <v>506.0869565217391</v>
       </c>
       <c r="J44" t="n">
-        <v>506.0869565217391</v>
+        <v>-11.84965034965035</v>
       </c>
       <c r="K44" t="n">
-        <v>105.3811188811189</v>
+        <v>35.56293706293701</v>
       </c>
       <c r="L44" t="n">
-        <v>81.66783216783222</v>
+        <v>-67.97565217391298</v>
       </c>
       <c r="M44" t="n">
-        <v>95.6330434782609</v>
+        <v>83.39304347826089</v>
       </c>
       <c r="N44" t="n">
-        <v>80.21565217391299</v>
+        <v>-151.3686956521738</v>
       </c>
       <c r="O44" t="n">
-        <v>-151.3686956521738</v>
+        <v>-47.4125874125873</v>
       </c>
       <c r="P44" t="n">
-        <v>-47.4125874125873</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>39.13067801763458</v>
-      </c>
-      <c r="R44" t="inlineStr">
+        <v>-198.7812830647612</v>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>陈奕诺</t>
         </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
-      </c>
-      <c r="U44" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>55951038</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>527.9090909090909</v>
+      </c>
       <c r="C45" t="n">
-        <v>527.9090909090909</v>
+        <v>585.6538461538462</v>
       </c>
       <c r="D45" t="n">
-        <v>585.6538461538462</v>
+        <v>544.1923076923077</v>
       </c>
       <c r="E45" t="n">
-        <v>544.1923076923077</v>
+        <v>503.6363636363636</v>
       </c>
       <c r="F45" t="n">
-        <v>503.6363636363636</v>
+        <v>693.6086956521739</v>
       </c>
       <c r="G45" t="n">
-        <v>693.6086956521739</v>
+        <v>672.88</v>
       </c>
       <c r="H45" t="n">
-        <v>672.88</v>
+        <v>700.9166666666666</v>
       </c>
       <c r="I45" t="n">
-        <v>700.9166666666666</v>
+        <v>594.7391304347826</v>
       </c>
       <c r="J45" t="n">
-        <v>594.7391304347826</v>
+        <v>16.28321678321686</v>
       </c>
       <c r="K45" t="n">
-        <v>40.55594405594411</v>
+        <v>82.01748251748256</v>
       </c>
       <c r="L45" t="n">
-        <v>-57.74475524475531</v>
+        <v>7.30797101449275</v>
       </c>
       <c r="M45" t="n">
-        <v>106.177536231884</v>
+        <v>78.14086956521737</v>
       </c>
       <c r="N45" t="n">
-        <v>20.72869565217388</v>
+        <v>-70.83289855072462</v>
       </c>
       <c r="O45" t="n">
-        <v>-70.83289855072462</v>
+        <v>-65.73426573426582</v>
       </c>
       <c r="P45" t="n">
-        <v>-65.73426573426582</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>183.7495398804095</v>
-      </c>
-      <c r="R45" t="inlineStr">
+        <v>-136.5671642849903</v>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>凌佩儿</t>
         </is>
       </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
-      </c>
-      <c r="U45" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>56015648</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>473.5925925925926</v>
+      </c>
       <c r="C46" t="n">
-        <v>473.5925925925926</v>
+        <v>403.952380952381</v>
       </c>
       <c r="D46" t="n">
-        <v>403.952380952381</v>
+        <v>504.3809523809524</v>
       </c>
       <c r="E46" t="n">
-        <v>504.3809523809524</v>
+        <v>442.6296296296296</v>
       </c>
       <c r="F46" t="n">
-        <v>442.6296296296296</v>
+        <v>516.7692307692307</v>
       </c>
       <c r="G46" t="n">
-        <v>516.7692307692307</v>
+        <v>456.5714285714286</v>
       </c>
       <c r="H46" t="n">
-        <v>456.5714285714286</v>
+        <v>601.1363636363636</v>
       </c>
       <c r="I46" t="n">
-        <v>601.1363636363636</v>
+        <v>512.3846153846154</v>
       </c>
       <c r="J46" t="n">
-        <v>512.3846153846154</v>
+        <v>30.7883597883598</v>
       </c>
       <c r="K46" t="n">
-        <v>61.75132275132279</v>
+        <v>-38.67724867724866</v>
       </c>
       <c r="L46" t="n">
-        <v>69.64021164021165</v>
+        <v>84.36713286713291</v>
       </c>
       <c r="M46" t="n">
-        <v>88.75174825174827</v>
+        <v>-55.8131868131868</v>
       </c>
       <c r="N46" t="n">
-        <v>60.19780219780216</v>
+        <v>140.1803196803197</v>
       </c>
       <c r="O46" t="n">
-        <v>140.1803196803197</v>
+        <v>69.46560846560851</v>
       </c>
       <c r="P46" t="n">
-        <v>69.46560846560851</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>20.66505716505725</v>
-      </c>
-      <c r="R46" t="inlineStr">
+        <v>209.6459281459282</v>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>陈佳铭</t>
         </is>
       </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
-      </c>
-      <c r="U46" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>56020297</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>674.3846153846154</v>
+      </c>
       <c r="C47" t="n">
-        <v>674.3846153846154</v>
+        <v>632.4545454545455</v>
       </c>
       <c r="D47" t="n">
-        <v>632.4545454545455</v>
+        <v>607.8181818181819</v>
       </c>
       <c r="E47" t="n">
-        <v>607.8181818181819</v>
+        <v>684.2692307692307</v>
       </c>
       <c r="F47" t="n">
-        <v>684.2692307692307</v>
+        <v>614.7727272727273</v>
       </c>
       <c r="G47" t="n">
-        <v>614.7727272727273</v>
+        <v>652.7692307692307</v>
       </c>
       <c r="H47" t="n">
-        <v>652.7692307692307</v>
+        <v>828.5769230769231</v>
       </c>
       <c r="I47" t="n">
-        <v>828.5769230769231</v>
+        <v>623.4090909090909</v>
       </c>
       <c r="J47" t="n">
-        <v>623.4090909090909</v>
+        <v>-66.56643356643349</v>
       </c>
       <c r="K47" t="n">
-        <v>-76.45104895104885</v>
+        <v>-51.81468531468522</v>
       </c>
       <c r="L47" t="n">
-        <v>41.93006993006986</v>
+        <v>213.8041958041958</v>
       </c>
       <c r="M47" t="n">
-        <v>205.1678321678322</v>
+        <v>29.36013986013984</v>
       </c>
       <c r="N47" t="n">
-        <v>-37.99650349650346</v>
+        <v>184.4440559440559</v>
       </c>
       <c r="O47" t="n">
-        <v>184.4440559440559</v>
+        <v>-14.75174825174827</v>
       </c>
       <c r="P47" t="n">
-        <v>-14.75174825174827</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>124.783216783217</v>
-      </c>
-      <c r="R47" t="inlineStr">
+        <v>169.6923076923077</v>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>陈浩然</t>
         </is>
       </c>
+      <c r="R47" t="n">
+        <v>10</v>
+      </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
-      </c>
-      <c r="U47" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>56024896</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>544.0344827586207</v>
+      </c>
       <c r="C48" t="n">
-        <v>544.0344827586207</v>
+        <v>510.421052631579</v>
       </c>
       <c r="D48" t="n">
-        <v>510.421052631579</v>
+        <v>512.7368421052631</v>
       </c>
       <c r="E48" t="n">
-        <v>512.7368421052631</v>
+        <v>452.0689655172414</v>
       </c>
       <c r="F48" t="n">
-        <v>452.0689655172414</v>
+        <v>546.7916666666666</v>
       </c>
       <c r="G48" t="n">
-        <v>546.7916666666666</v>
+        <v>552.2916666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>552.2916666666666</v>
+        <v>545.6666666666666</v>
       </c>
       <c r="I48" t="n">
-        <v>545.6666666666666</v>
+        <v>442.3333333333333</v>
       </c>
       <c r="J48" t="n">
-        <v>442.3333333333333</v>
+        <v>-31.29764065335758</v>
       </c>
       <c r="K48" t="n">
-        <v>60.66787658802173</v>
+        <v>58.35208711433756</v>
       </c>
       <c r="L48" t="n">
-        <v>33.61343012704174</v>
+        <v>-1.125</v>
       </c>
       <c r="M48" t="n">
-        <v>103.3333333333333</v>
+        <v>109.9583333333333</v>
       </c>
       <c r="N48" t="n">
-        <v>-5.5</v>
+        <v>-111.0833333333333</v>
       </c>
       <c r="O48" t="n">
-        <v>-111.0833333333333</v>
+        <v>-89.64972776769514</v>
       </c>
       <c r="P48" t="n">
-        <v>-89.64972776769514</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>135.8877797943133</v>
-      </c>
-      <c r="R48" t="inlineStr">
+        <v>-200.7330611010285</v>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>刘李浚</t>
         </is>
       </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
-      </c>
-      <c r="U48" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>56027303</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>856.9130434782609</v>
+      </c>
       <c r="C49" t="n">
-        <v>856.9130434782609</v>
+        <v>615.3200000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>615.3200000000001</v>
+        <v>641.64</v>
       </c>
       <c r="E49" t="n">
-        <v>641.64</v>
+        <v>473.8260869565217</v>
       </c>
       <c r="F49" t="n">
-        <v>473.8260869565217</v>
+        <v>833.8636363636364</v>
       </c>
       <c r="G49" t="n">
-        <v>833.8636363636364</v>
+        <v>603</v>
       </c>
       <c r="H49" t="n">
-        <v>603</v>
+        <v>733.9583333333334</v>
       </c>
       <c r="I49" t="n">
-        <v>733.9583333333334</v>
+        <v>638.0434782608696</v>
       </c>
       <c r="J49" t="n">
-        <v>638.0434782608696</v>
+        <v>-215.2730434782609</v>
       </c>
       <c r="K49" t="n">
-        <v>167.8139130434782</v>
+        <v>141.4939130434783</v>
       </c>
       <c r="L49" t="n">
-        <v>241.5930434782608</v>
+        <v>-99.905303030303</v>
       </c>
       <c r="M49" t="n">
-        <v>95.91485507246375</v>
+        <v>-35.04347826086962</v>
       </c>
       <c r="N49" t="n">
-        <v>230.8636363636364</v>
+        <v>-64.8618247694335</v>
       </c>
       <c r="O49" t="n">
-        <v>-64.8618247694335</v>
+        <v>-356.7669565217391</v>
       </c>
       <c r="P49" t="n">
-        <v>-356.7669565217391</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>-208.7279117259552</v>
-      </c>
-      <c r="R49" t="inlineStr">
+        <v>-421.6287812911726</v>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>谭天慧</t>
         </is>
       </c>
+      <c r="R49" t="n">
+        <v>12</v>
+      </c>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
-      </c>
-      <c r="U49" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>56035722</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>665.75</v>
+      </c>
       <c r="C50" t="n">
-        <v>665.75</v>
+        <v>529.5714285714286</v>
       </c>
       <c r="D50" t="n">
-        <v>529.5714285714286</v>
+        <v>655.8928571428571</v>
       </c>
       <c r="E50" t="n">
-        <v>655.8928571428571</v>
+        <v>574.95</v>
       </c>
       <c r="F50" t="n">
-        <v>574.95</v>
+        <v>568.8695652173913</v>
       </c>
       <c r="G50" t="n">
-        <v>568.8695652173913</v>
+        <v>602.92</v>
       </c>
       <c r="H50" t="n">
-        <v>602.92</v>
+        <v>646.64</v>
       </c>
       <c r="I50" t="n">
-        <v>646.64</v>
+        <v>582.6363636363636</v>
       </c>
       <c r="J50" t="n">
-        <v>582.6363636363636</v>
+        <v>-9.85714285714289</v>
       </c>
       <c r="K50" t="n">
-        <v>80.94285714285706</v>
+        <v>-45.37857142857149</v>
       </c>
       <c r="L50" t="n">
-        <v>136.1785714285714</v>
+        <v>77.77043478260873</v>
       </c>
       <c r="M50" t="n">
-        <v>64.00363636363636</v>
+        <v>20.28363636363633</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.0504347826087</v>
+        <v>57.48679841897251</v>
       </c>
       <c r="O50" t="n">
-        <v>57.48679841897251</v>
+        <v>35.52142857142871</v>
       </c>
       <c r="P50" t="n">
-        <v>35.52142857142871</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>42.81835686053068</v>
-      </c>
-      <c r="R50" t="inlineStr">
+        <v>93.008226990401</v>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>江凯翔</t>
         </is>
       </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
       <c r="S50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
-      </c>
-      <c r="U50" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>56040135</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>768.0869565217391</v>
+      </c>
       <c r="C51" t="n">
-        <v>768.0869565217391</v>
+        <v>715.8</v>
       </c>
       <c r="D51" t="n">
-        <v>715.8</v>
+        <v>693.24</v>
       </c>
       <c r="E51" t="n">
-        <v>693.24</v>
+        <v>543.7826086956521</v>
       </c>
       <c r="F51" t="n">
-        <v>543.7826086956521</v>
+        <v>741.1111111111111</v>
       </c>
       <c r="G51" t="n">
-        <v>741.1111111111111</v>
+        <v>876.9629629629629</v>
       </c>
       <c r="H51" t="n">
-        <v>876.9629629629629</v>
+        <v>709.5714285714286</v>
       </c>
       <c r="I51" t="n">
-        <v>709.5714285714286</v>
+        <v>822</v>
       </c>
       <c r="J51" t="n">
-        <v>822</v>
+        <v>-74.84695652173912</v>
       </c>
       <c r="K51" t="n">
-        <v>149.4573913043479</v>
+        <v>172.0173913043478</v>
       </c>
       <c r="L51" t="n">
-        <v>52.28695652173917</v>
+        <v>-31.53968253968253</v>
       </c>
       <c r="M51" t="n">
-        <v>-112.4285714285714</v>
+        <v>54.96296296296293</v>
       </c>
       <c r="N51" t="n">
-        <v>-135.8518518518518</v>
+        <v>-86.50264550264546</v>
       </c>
       <c r="O51" t="n">
-        <v>-86.50264550264546</v>
+        <v>-246.8643478260869</v>
       </c>
       <c r="P51" t="n">
-        <v>-246.8643478260869</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>120.5937152058891</v>
-      </c>
-      <c r="R51" t="inlineStr">
+        <v>-333.3669933287324</v>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>刘栩嘉</t>
         </is>
       </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
-      </c>
-      <c r="U51" t="n">
         <v>6</v>
       </c>
     </row>
